--- a/MosExchange/Data/Config.xlsx
+++ b/MosExchange/Data/Config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Value</t>
   </si>
@@ -39,31 +39,34 @@
     <t>Data\Temp\</t>
   </si>
   <si>
-    <t>Port</t>
-  </si>
-  <si>
-    <t>Server</t>
-  </si>
-  <si>
     <t>smtp.gmail.com</t>
   </si>
   <si>
+    <t>SendTo</t>
+  </si>
+  <si>
+    <t>juikomathew@gmail.com</t>
+  </si>
+  <si>
+    <t>SendPort</t>
+  </si>
+  <si>
+    <t>SendServer</t>
+  </si>
+  <si>
+    <t>ReadPort</t>
+  </si>
+  <si>
+    <t>ReadServer</t>
+  </si>
+  <si>
+    <t>imap.gmail.com</t>
+  </si>
+  <si>
+    <t>EmailCredentials</t>
+  </si>
+  <si>
     <t>Email</t>
-  </si>
-  <si>
-    <t>tgko envn uepf msmq</t>
-  </si>
-  <si>
-    <t>SendTo</t>
-  </si>
-  <si>
-    <t>juikomathew@gmail.com</t>
-  </si>
-  <si>
-    <t>EmailPassword</t>
-  </si>
-  <si>
-    <t>jmathhhew@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -392,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,7 +433,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>587</v>
@@ -438,41 +441,48 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
+      <c r="B7">
+        <v>993</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
-    <hyperlink ref="B8" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MosExchange/Data/Config.xlsx
+++ b/MosExchange/Data/Config.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/MosExchange/Data/Config.xlsx
+++ b/MosExchange/Data/Config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Value</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Result\</t>
+  </si>
+  <si>
+    <t>ResultFolderPath</t>
   </si>
 </sst>
 </file>
@@ -395,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,6 +485,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
